--- a/后端字段.xlsx
+++ b/后端字段.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>User用户</t>
   </si>
@@ -111,6 +111,45 @@
   </si>
   <si>
     <t>评论日期</t>
+  </si>
+  <si>
+    <t>Learn学习</t>
+  </si>
+  <si>
+    <t>image(图片)        Learn(分类)</t>
+  </si>
+  <si>
+    <t>社区：</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>地点</t>
+  </si>
+  <si>
+    <t>介绍</t>
+  </si>
+  <si>
+    <t>社区图片</t>
+  </si>
+  <si>
+    <t>社区领导人</t>
+  </si>
+  <si>
+    <t>社区领导人电话</t>
+  </si>
+  <si>
+    <t>社区id</t>
+  </si>
+  <si>
+    <t>招聘信息：</t>
+  </si>
+  <si>
+    <t>招聘要求</t>
+  </si>
+  <si>
+    <t>招聘人数</t>
   </si>
 </sst>
 </file>
@@ -120,8 +159,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -133,7 +172,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,8 +185,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,7 +226,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,7 +293,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,31 +301,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,52 +314,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -285,19 +324,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,37 +486,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,121 +504,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,17 +518,46 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,32 +586,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -559,20 +601,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,10 +623,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,133 +635,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1052,14 +1091,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
     <col min="13" max="13" width="10.625" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
     <col min="15" max="17" width="13.875" customWidth="1"/>
@@ -1183,6 +1224,56 @@
         <v>31</v>
       </c>
     </row>
+    <row r="8" spans="1:22">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" t="s">
+        <v>41</v>
+      </c>
+      <c r="S8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V8" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/后端字段.xlsx
+++ b/后端字段.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>User用户</t>
   </si>
@@ -150,6 +150,30 @@
   </si>
   <si>
     <t>招聘人数</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>Com_name</t>
+  </si>
+  <si>
+    <t>Com_address</t>
+  </si>
+  <si>
+    <t>Com_introduce</t>
+  </si>
+  <si>
+    <t>Com_image</t>
+  </si>
+  <si>
+    <t>Com_People</t>
+  </si>
+  <si>
+    <t>Com_phone</t>
+  </si>
+  <si>
+    <t>Com_Id</t>
   </si>
 </sst>
 </file>
@@ -159,8 +183,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -171,6 +195,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -185,9 +224,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,36 +292,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -258,50 +303,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,6 +315,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -324,37 +348,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,25 +492,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,7 +510,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,103 +528,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,20 +544,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,9 +568,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,38 +634,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,10 +647,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,133 +659,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1091,19 +1115,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16.875" customWidth="1"/>
     <col min="3" max="3" width="19.875" customWidth="1"/>
-    <col min="13" max="13" width="10.625" customWidth="1"/>
-    <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="17" width="13.875" customWidth="1"/>
+    <col min="9" max="9" width="11.125" customWidth="1"/>
+    <col min="10" max="10" width="16.375" customWidth="1"/>
+    <col min="11" max="11" width="17.375" customWidth="1"/>
+    <col min="12" max="12" width="20.25" customWidth="1"/>
+    <col min="13" max="13" width="17.125" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="17.75" customWidth="1"/>
+    <col min="16" max="17" width="13.875" customWidth="1"/>
     <col min="18" max="18" width="12" customWidth="1"/>
     <col min="20" max="20" width="11" customWidth="1"/>
     <col min="21" max="21" width="11.375" customWidth="1"/>
@@ -1274,6 +1303,32 @@
         <v>44</v>
       </c>
     </row>
+    <row r="9" spans="9:16">
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/后端字段.xlsx
+++ b/后端字段.xlsx
@@ -181,10 +181,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -192,6 +192,46 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,6 +244,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -211,68 +318,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,54 +332,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -348,43 +348,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,139 +522,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,6 +602,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -612,21 +627,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,10 +647,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,133 +659,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1117,8 +1117,8 @@
   <sheetPr/>
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/后端字段.xlsx
+++ b/后端字段.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>User用户</t>
   </si>
@@ -119,6 +119,12 @@
     <t>image(图片)        Learn(分类)</t>
   </si>
   <si>
+    <t>articleId</t>
+  </si>
+  <si>
+    <t>l_category</t>
+  </si>
+  <si>
     <t>社区：</t>
   </si>
   <si>
@@ -152,28 +158,7 @@
     <t>招聘人数</t>
   </si>
   <si>
-    <t>Community</t>
-  </si>
-  <si>
-    <t>Com_name</t>
-  </si>
-  <si>
-    <t>Com_address</t>
-  </si>
-  <si>
-    <t>Com_introduce</t>
-  </si>
-  <si>
-    <t>Com_image</t>
-  </si>
-  <si>
-    <t>Com_People</t>
-  </si>
-  <si>
-    <t>Com_phone</t>
-  </si>
-  <si>
-    <t>Com_Id</t>
+    <t>文章类别</t>
   </si>
 </sst>
 </file>
@@ -181,10 +166,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -192,6 +177,36 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,124 +218,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -332,8 +256,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,13 +333,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,13 +393,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,139 +489,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,9 +529,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,26 +579,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,8 +589,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,26 +610,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,10 +632,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,133 +644,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1117,28 +1102,23 @@
   <sheetPr/>
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
-    <col min="9" max="9" width="11.125" customWidth="1"/>
-    <col min="10" max="10" width="16.375" customWidth="1"/>
-    <col min="11" max="11" width="17.375" customWidth="1"/>
-    <col min="12" max="12" width="20.25" customWidth="1"/>
-    <col min="13" max="13" width="17.125" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="17.75" customWidth="1"/>
-    <col min="16" max="17" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="16.8796296296296" customWidth="1"/>
+    <col min="3" max="3" width="19.8796296296296" customWidth="1"/>
+    <col min="13" max="13" width="10.6296296296296" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="17" width="13.8796296296296" customWidth="1"/>
     <col min="18" max="18" width="12" customWidth="1"/>
     <col min="20" max="20" width="11" customWidth="1"/>
-    <col min="21" max="21" width="11.375" customWidth="1"/>
+    <col min="21" max="21" width="11.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:22">
+    <row r="1" ht="28.8" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1260,73 +1240,58 @@
       <c r="B8" t="s">
         <v>33</v>
       </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="U8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="9" spans="9:16">
-      <c r="I9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" t="s">
+    <row r="9" spans="6:6">
+      <c r="F9" t="s">
         <v>47</v>
-      </c>
-      <c r="L9" t="s">
-        <v>48</v>
-      </c>
-      <c r="M9" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O9" t="s">
-        <v>51</v>
-      </c>
-      <c r="P9" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
